--- a/beitrag.xlsx
+++ b/beitrag.xlsx
@@ -80,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -362,7 +363,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,122 +397,122 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>70123456</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>70123457</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>70123458</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>70123459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>70123460</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>70123461</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>70123462</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>70123463</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>70123464</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>70123465</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>70123466</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>70123467</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>70123468</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>70123469</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>70123470</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>70123471</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>70123472</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>70123473</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>70123474</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>70123475</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>70123476</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>70123477</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>70123478</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>70123479</v>
       </c>
     </row>
